--- a/biology/Zoologie/Delomerista/Delomerista.xlsx
+++ b/biology/Zoologie/Delomerista/Delomerista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delomeristini
 Delomerista est un genre d'insectes hyménoptères apocrites de la famille des Ichneumonidae, de la sous-famille des Pimplinae, de la tribu des Delomeristini.
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Delomeristini est décrite par Wolter Edward Hellén en 1915[1].
-Le genre Delomerista est décrit par Förster en 1868[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Delomeristini est décrite par Wolter Edward Hellén en 1915.
+Le genre Delomerista est décrit par Förster en 1868,.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Genres de la tribu des Delomeristini</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib en 2023, la tribu des Delomeristini a deux genres[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib en 2023, la tribu des Delomeristini a deux genres :
 Atractogaster Kriechbaumer, 1872
-Delomerista Foerster, 1868[4]</t>
+Delomerista Foerster, 1868</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Espèces du genre Delomerista</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib et Catalogue of Life en 2023, le nombre d'espèces est de dix-huit[5],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib et Catalogue of Life en 2023, le nombre d'espèces est de dix-huit, :
 Delomerista borealis Walkley, 1960
 Delomerista diprionis Cushman, 1939
 Delomerista excavata Ulbricht, 1913
@@ -596,7 +614,7 @@
 Delomerista pfankuchi Brauns, 1905
 Delomerista strandi Ulbricht, 1911
 Delomerista townesorum Gupta, 1982
-Delomerista walkleyae Gupta, 1982[6]
+Delomerista walkleyae Gupta, 1982
 </t>
         </is>
       </c>
@@ -625,9 +643,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se trouvent en Europe, en Afrique australe et en Amérique du Nord[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se trouvent en Europe, en Afrique australe et en Amérique du Nord.
 </t>
         </is>
       </c>
